--- a/analysis/warm_activation_data_and_modelling.xlsx
+++ b/analysis/warm_activation_data_and_modelling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mccikpc2/The University of Manchester Dropbox/Paul Connolly/projects/iSKYLAB01/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56BF8AF3-4D4B-374C-B434-A154F6384E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A20DA02-5FAE-5C4F-8F8C-1AA42CBE5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="760" windowWidth="29820" windowHeight="21580" xr2:uid="{8FF09716-CAC9-1442-85DA-6DCA1581684A}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>time air reaches saturation (mins)</t>
   </si>
   <si>
-    <t>*please note, now temperatures have been updated I may move from calculating initial humidity to actually using the humidity</t>
-  </si>
-  <si>
     <t>Experiment batches to compare:</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>initial RH (calculated)</t>
   </si>
   <si>
-    <t>*also note, the calculated humidity could be wrong now the temperature data is updated?</t>
-  </si>
-  <si>
     <t>Kappa 1</t>
   </si>
   <si>
@@ -318,6 +312,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*please note, my humidity calculation assumes that water vapour mixing ratio is conserved between t=0 and the time the air first saturates (i.e. RH=100%). It is different to that shown from the data, so maybe there is a loss term. </t>
+  </si>
+  <si>
+    <t>*it may be better to put the vapour / total water timeseries in the model directly. I haven't done this</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,40 +925,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -984,22 +984,22 @@
         <v>1.28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5">
         <v>2272.55054823</v>
@@ -1032,22 +1032,22 @@
         <v>1.28</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="N3" s="5">
         <v>2458.9618684000002</v>
@@ -1080,22 +1080,22 @@
         <v>1.28</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="N4" s="5">
         <v>2564.5208385300002</v>
@@ -1128,22 +1128,22 @@
         <v>1.28</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="N5" s="5">
         <v>2693.80518274</v>
@@ -1176,22 +1176,22 @@
         <v>1.28</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="N6" s="5">
         <v>2449.4828249100001</v>
@@ -1222,13 +1222,13 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1262,13 +1262,13 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1276,7 +1276,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1340,13 +1340,13 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1420,13 +1420,13 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1460,13 +1460,13 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1502,27 +1502,27 @@
         <v>1.28</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1548,22 +1548,22 @@
         <v>1.28</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="N15" s="5">
         <v>1719.6167825699999</v>
@@ -1594,13 +1594,13 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1615,52 +1615,52 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
